--- a/biology/Botanique/Quarantina_prugnona/Quarantina_prugnona.xlsx
+++ b/biology/Botanique/Quarantina_prugnona/Quarantina_prugnona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Quarantina prugnona est une variété de pomme de terre à peau violette et chair blanche cultivée traditionnellement en Ligurie. Sa promotion est assurée par une association, le Consorzio della Quarantina fondée en 2000 par des agriculteurs locaux.
-Sa production bénéficie du label de qualité italien : « Prodotto agroalimentare tradizionale » (produit agroalimentaire traditionnel)[1].
+Sa production bénéficie du label de qualité italien : « Prodotto agroalimentare tradizionale » (produit agroalimentaire traditionnel).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tubercule a une forme arrondie, irrégulière, aux yeux relativement enfoncés.
 La peau, lisse, est de couleur prune-violet tachetée de blanc crème.
@@ -546,7 +560,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme quarantina (quarantaine) s'applique généralement aux variétés les plus adaptées à un cycle cultural court, tandis que le qualificatif prugnona (de prugna, prune) se réfère à la couleur de la peau.
 Les témoignages les plus anciens qui nous sont parvenus indiquent que la culture de cette variété à val d'Aveto remonte à l'année 1910, mais étant donné que cette variété est la génitrice de la Quarantina bianca genovese, sa date d'introduction est probablement antérieure.
@@ -579,7 +595,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prugnona,
 Brügnœa,
@@ -613,7 +631,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En cuisine, cette pomme de terre est utilisée pour accompagner certains types de mets comme la daube, le ragoût ou le bœuf à l'étouffée. Son goût est particulièrement mis en valeur si on la fait cuire à la vapeur avec la peau.
 </t>
@@ -644,7 +664,9 @@
           <t>Fêtes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sagra della patata à Roccatagliata (valle Fontanabuona), l'avant-dernier dimanche d'août ;
 Festa della Quarantina à Còsola (val Borbera), le premier dimanche de septembre ;
@@ -676,7 +698,9 @@
           <t>Variétés de pommes de terre traditionnelles de Ligurie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cabannese
 Cannellina nera
